--- a/data/trans_dic/IP26C_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP26C_R-Edad-trans_dic.xlsx
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,37 +796,37 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>17,42%</t>
+          <t>6,96%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>20,2%</t>
+          <t>7,45%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>16,24%</t>
+          <t>6,39%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>11,39%</t>
+          <t>13,22%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>23,89%</t>
+          <t>6,08%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>19,67%</t>
+          <t>7,98%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>15,32%</t>
+          <t>7,87%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -836,22 +836,22 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>20,57%</t>
+          <t>6,53%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>19,94%</t>
+          <t>7,71%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>15,79%</t>
+          <t>7,11%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>10,66%</t>
+          <t>11,55%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13,96; 21,38</t>
+          <t>4,58; 9,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16,56; 24,04</t>
+          <t>4,92; 10,91</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>12,87; 20,52</t>
+          <t>4,17; 9,56</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,51; 14,19</t>
+          <t>9,09; 18,33</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>19,87; 28,01</t>
+          <t>3,71; 9,37</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,08; 24,34</t>
+          <t>5,0; 11,53</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>12,03; 19,91</t>
+          <t>5,49; 11,32</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>7,67; 12,92</t>
+          <t>6,9; 14,18</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>17,96; 23,6</t>
+          <t>4,85; 8,68</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>17,13; 22,81</t>
+          <t>5,85; 9,89</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>13,04; 18,4</t>
+          <t>5,45; 9,14</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>8,8; 12,85</t>
+          <t>8,95; 14,67</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,37 +936,37 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,96%</t>
+          <t>17,42%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,45%</t>
+          <t>20,2%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,39%</t>
+          <t>16,24%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>13,22%</t>
+          <t>11,39%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>6,08%</t>
+          <t>23,89%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>7,98%</t>
+          <t>19,67%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>7,87%</t>
+          <t>15,32%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -976,22 +976,22 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>6,53%</t>
+          <t>20,57%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>7,71%</t>
+          <t>19,94%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>7,11%</t>
+          <t>15,79%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>11,55%</t>
+          <t>10,66%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,58; 9,88</t>
+          <t>13,96; 21,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,92; 10,91</t>
+          <t>16,56; 24,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,17; 9,56</t>
+          <t>12,87; 20,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,09; 18,33</t>
+          <t>8,51; 14,19</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,71; 9,37</t>
+          <t>19,87; 28,01</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,0; 11,53</t>
+          <t>16,08; 24,34</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,49; 11,32</t>
+          <t>12,03; 19,91</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,9; 14,18</t>
+          <t>7,67; 12,92</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,85; 8,68</t>
+          <t>17,96; 23,6</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5,85; 9,89</t>
+          <t>17,13; 22,81</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5,45; 9,14</t>
+          <t>13,04; 18,4</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>8,95; 14,67</t>
+          <t>8,8; 12,85</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP26C_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP26C_R-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,74%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,75%</t>
+          <t>3,31%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,4%</t>
+          <t>0,75%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,86%</t>
+          <t>5,58%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>1,17%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>1,43%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,14%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>7,56%</t>
+          <t>7,64%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,59%</t>
+          <t>0,55%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>3,0%</t>
+          <t>2,37%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>3,27%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>7,72%</t>
+          <t>6,6%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,61; 3,66</t>
+          <t>0; 1,07</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,05; 6,23</t>
+          <t>1,38; 6,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,64; 6,03</t>
+          <t>0,0; 3,77</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,05; 11,65</t>
+          <t>2,48; 10,43</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,54; 3,4</t>
+          <t>0,0; 3,87</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,94; 4,34</t>
+          <t>0,45; 4,36</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,63; 5,44</t>
+          <t>0,52; 4,97</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,22; 11,71</t>
+          <t>3,75; 13,56</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,8; 2,7</t>
+          <t>0,0; 1,86</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,93; 4,62</t>
+          <t>1,19; 4,17</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,03; 4,98</t>
+          <t>0,46; 2,93</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,42; 10,38</t>
+          <t>3,88; 10,3</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,96%</t>
+          <t>5,15%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7,45%</t>
+          <t>5,27%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6,39%</t>
+          <t>6,22%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>13,22%</t>
+          <t>8,48%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>6,08%</t>
+          <t>4,58%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>7,98%</t>
+          <t>5,43%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>7,87%</t>
+          <t>5,55%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>9,82%</t>
+          <t>8,03%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>6,53%</t>
+          <t>4,87%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>7,71%</t>
+          <t>5,34%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>7,11%</t>
+          <t>5,92%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>11,55%</t>
+          <t>8,27%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,58; 9,88</t>
+          <t>3,18; 7,61</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,92; 10,91</t>
+          <t>3,41; 7,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,17; 9,56</t>
+          <t>4,11; 8,96</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,09; 18,33</t>
+          <t>5,68; 12,47</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,71; 9,37</t>
+          <t>2,98; 7,17</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,0; 11,53</t>
+          <t>3,33; 8,39</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,49; 11,32</t>
+          <t>3,44; 8,53</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,9; 14,18</t>
+          <t>4,97; 12,06</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,85; 8,68</t>
+          <t>3,5; 6,56</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>5,85; 9,89</t>
+          <t>3,82; 7,14</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5,45; 9,14</t>
+          <t>4,27; 8,02</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>8,95; 14,67</t>
+          <t>6,12; 11,02</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>17,42%</t>
+          <t>8,84%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>20,2%</t>
+          <t>12,12%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>16,24%</t>
+          <t>11,9%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>11,39%</t>
+          <t>15,9%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>23,89%</t>
+          <t>12,16%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>19,67%</t>
+          <t>12,02%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>15,32%</t>
+          <t>13,08%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>9,82%</t>
+          <t>10,44%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>20,57%</t>
+          <t>10,42%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>19,94%</t>
+          <t>12,07%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>15,79%</t>
+          <t>12,49%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>10,66%</t>
+          <t>13,36%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>13,96; 21,38</t>
+          <t>5,67; 13,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>16,56; 24,04</t>
+          <t>8,03; 17,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,87; 20,52</t>
+          <t>8,55; 16,41</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,51; 14,19</t>
+          <t>11,14; 21,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>19,87; 28,01</t>
+          <t>8,25; 16,99</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16,08; 24,34</t>
+          <t>8,21; 16,89</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>12,03; 19,91</t>
+          <t>9,37; 17,83</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,67; 12,92</t>
+          <t>7,09; 14,53</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>17,96; 23,6</t>
+          <t>7,83; 13,77</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>17,13; 22,81</t>
+          <t>9,27; 15,29</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>13,04; 18,4</t>
+          <t>9,96; 15,5</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>8,8; 12,85</t>
+          <t>10,53; 16,92</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>9,43%</t>
+          <t>20,65%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>10,91%</t>
+          <t>24,37%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>9,3%</t>
+          <t>16,89%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>11,33%</t>
+          <t>11,02%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>11,62%</t>
+          <t>26,06%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>10,41%</t>
+          <t>23,29%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>9,4%</t>
+          <t>15,56%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>9,46%</t>
+          <t>10,07%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>10,5%</t>
+          <t>23,29%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>10,67%</t>
+          <t>23,84%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>9,35%</t>
+          <t>16,22%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>10,45%</t>
+          <t>10,57%</t>
         </is>
       </c>
     </row>
@@ -1144,68 +1144,216 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,78; 11,22</t>
+          <t>16,6; 25,86</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,18; 12,99</t>
+          <t>20,07; 30,73</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,64; 11,15</t>
+          <t>12,65; 22,2</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,26; 13,53</t>
+          <t>8,05; 15,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>9,7; 13,84</t>
+          <t>21,31; 31,5</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,56; 12,34</t>
+          <t>18,07; 30,04</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,59; 11,28</t>
+          <t>11,65; 21,35</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,6; 11,38</t>
+          <t>6,86; 13,48</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>9,31; 11,82</t>
+          <t>20,15; 27,17</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>9,41; 12,07</t>
+          <t>20,35; 27,72</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>8,16; 10,68</t>
+          <t>13,1; 19,7</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>9,11; 12,01</t>
+          <t>8,42; 13,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>9,43%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>10,91%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>9,3%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>11,33%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>11,62%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>10,41%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>9,4%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>9,46%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>10,5%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>10,67%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>9,35%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>10,45%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>7,92; 11,18</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>9,18; 12,91</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>7,57; 11,08</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>9,34; 13,41</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>9,84; 13,83</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>8,66; 12,47</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>7,76; 11,54</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>7,8; 11,65</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>9,21; 11,9</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>9,33; 12,06</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>8,25; 10,78</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>9,08; 11,93</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>

--- a/data/trans_dic/IP26C_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP26C_R-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -729,57 +729,57 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,38; 6,29</t>
+          <t>1,39; 6,35</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,77</t>
+          <t>0,0; 4,04</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,48; 10,43</t>
+          <t>2,63; 10,51</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,87</t>
+          <t>0,0; 4,44</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,45; 4,36</t>
+          <t>0,46; 3,88</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,52; 4,97</t>
+          <t>0,48; 4,47</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,75; 13,56</t>
+          <t>3,67; 14,63</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,86</t>
+          <t>0,0; 1,79</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,19; 4,17</t>
+          <t>1,18; 4,27</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,46; 2,93</t>
+          <t>0,45; 3,12</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,88; 10,3</t>
+          <t>3,78; 10,11</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,18; 7,61</t>
+          <t>3,13; 7,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,41; 7,77</t>
+          <t>3,26; 8,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,11; 8,96</t>
+          <t>4,18; 9,21</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,68; 12,47</t>
+          <t>5,57; 12,32</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,98; 7,17</t>
+          <t>2,8; 7,22</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,33; 8,39</t>
+          <t>3,31; 8,38</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,44; 8,53</t>
+          <t>3,31; 8,36</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,97; 12,06</t>
+          <t>4,94; 12,04</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,5; 6,56</t>
+          <t>3,42; 6,58</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,82; 7,14</t>
+          <t>4,0; 7,22</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,27; 8,02</t>
+          <t>4,37; 7,94</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,12; 11,02</t>
+          <t>6,1; 10,88</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,67; 13,03</t>
+          <t>5,2; 12,6</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,03; 17,02</t>
+          <t>8,43; 16,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,55; 16,41</t>
+          <t>8,4; 16,63</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,14; 21,57</t>
+          <t>11,73; 20,99</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>8,25; 16,99</t>
+          <t>7,96; 17,72</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,21; 16,89</t>
+          <t>7,94; 16,83</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,37; 17,83</t>
+          <t>9,44; 17,88</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,09; 14,53</t>
+          <t>7,11; 14,91</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,83; 13,77</t>
+          <t>7,69; 13,75</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>9,27; 15,29</t>
+          <t>9,28; 15,43</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>9,96; 15,5</t>
+          <t>9,78; 15,63</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>10,53; 16,92</t>
+          <t>10,47; 16,38</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,6; 25,86</t>
+          <t>16,19; 25,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>20,07; 30,73</t>
+          <t>19,11; 29,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>12,65; 22,2</t>
+          <t>12,46; 21,92</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,05; 15,2</t>
+          <t>7,78; 15,47</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>21,31; 31,5</t>
+          <t>20,94; 30,95</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>18,07; 30,04</t>
+          <t>18,4; 29,18</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>11,65; 21,35</t>
+          <t>11,08; 20,48</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,86; 13,48</t>
+          <t>7,22; 13,85</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>20,15; 27,17</t>
+          <t>19,84; 26,82</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>20,35; 27,72</t>
+          <t>20,49; 27,62</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>13,1; 19,7</t>
+          <t>13,22; 19,61</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>8,42; 13,0</t>
+          <t>8,05; 13,09</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,92; 11,18</t>
+          <t>7,8; 11,22</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,18; 12,91</t>
+          <t>9,23; 12,9</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,57; 11,08</t>
+          <t>7,52; 11,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9,34; 13,41</t>
+          <t>9,18; 13,48</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>9,84; 13,83</t>
+          <t>9,68; 13,53</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>8,66; 12,47</t>
+          <t>8,55; 12,68</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,76; 11,54</t>
+          <t>7,72; 11,43</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,8; 11,65</t>
+          <t>7,72; 11,47</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>9,21; 11,9</t>
+          <t>9,14; 11,82</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>9,33; 12,06</t>
+          <t>9,39; 12,21</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>8,25; 10,78</t>
+          <t>8,12; 10,74</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>9,08; 11,93</t>
+          <t>9,08; 12,1</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP26C_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP26C_R-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -656,42 +656,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>1,17%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1,43%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1,86%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>7,68%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>3,31%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>0,75%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>5,58%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>1,17%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>1,43%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>1,86%</t>
-        </is>
-      </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>7,64%</t>
+          <t>5,36%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>6,6%</t>
+          <t>6,48%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>0,0; 3,98</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0,45; 3,86</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0,52; 4,89</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>3,61; 13,89</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>0; 1,07</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>1,39; 6,35</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 4,04</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>2,63; 10,51</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 4,44</t>
-        </is>
-      </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,46; 3,88</t>
+          <t>1,46; 6,82</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,48; 4,47</t>
+          <t>0,0; 4,13</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,67; 14,63</t>
+          <t>2,44; 10,1</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,79</t>
+          <t>0,0; 1,78</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,18; 4,27</t>
+          <t>1,2; 4,49</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,45; 3,12</t>
+          <t>0,5; 2,94</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,78; 10,11</t>
+          <t>3,75; 10,13</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>4,58%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>5,43%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>5,55%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>7,7%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>5,15%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>5,27%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>6,22%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>8,48%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>4,58%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>5,43%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>5,55%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>8,03%</t>
+          <t>8,19%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>8,27%</t>
+          <t>7,96%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,13; 7,57</t>
+          <t>2,74; 7,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,26; 8,05</t>
+          <t>3,23; 8,19</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,18; 9,21</t>
+          <t>3,39; 8,59</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,57; 12,32</t>
+          <t>5,0; 11,78</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,8; 7,22</t>
+          <t>3,37; 8,11</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,31; 8,38</t>
+          <t>3,36; 8,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,31; 8,36</t>
+          <t>4,06; 9,15</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,94; 12,04</t>
+          <t>5,21; 12,09</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,42; 6,58</t>
+          <t>3,51; 6,49</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,0; 7,22</t>
+          <t>3,9; 7,12</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,37; 7,94</t>
+          <t>4,2; 7,84</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,1; 10,88</t>
+          <t>5,82; 10,67</t>
         </is>
       </c>
     </row>
@@ -936,42 +936,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>12,16%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>12,02%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>13,08%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>10,37%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>8,84%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>12,12%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>11,9%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>15,9%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>12,16%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>12,02%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>13,08%</t>
-        </is>
-      </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>10,44%</t>
+          <t>15,36%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>13,36%</t>
+          <t>13,12%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,2; 12,6</t>
+          <t>8,04; 17,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,43; 16,38</t>
+          <t>8,42; 17,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,4; 16,63</t>
+          <t>9,54; 17,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,73; 20,99</t>
+          <t>6,94; 14,66</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,96; 17,72</t>
+          <t>5,61; 13,3</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,94; 16,83</t>
+          <t>8,36; 17,13</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,44; 17,88</t>
+          <t>8,54; 16,59</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,11; 14,91</t>
+          <t>11,05; 20,5</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,69; 13,75</t>
+          <t>7,85; 13,72</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>9,28; 15,43</t>
+          <t>9,51; 15,57</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>9,78; 15,63</t>
+          <t>9,87; 15,56</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>10,47; 16,38</t>
+          <t>10,13; 16,39</t>
         </is>
       </c>
     </row>
@@ -1076,49 +1076,49 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>26,06%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>23,29%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>15,56%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>9,15%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>20,65%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>24,37%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>16,89%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>11,02%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>26,06%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>10,45%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
         <is>
           <t>23,29%</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>15,56%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>10,07%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>23,29%</t>
-        </is>
-      </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
           <t>23,84%</t>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>10,57%</t>
+          <t>9,84%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,19; 25,11</t>
+          <t>21,24; 31,54</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>19,11; 29,57</t>
+          <t>18,08; 29,05</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>12,46; 21,92</t>
+          <t>11,4; 20,53</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,78; 15,47</t>
+          <t>5,75; 12,45</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>20,94; 30,95</t>
+          <t>16,18; 24,97</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>18,4; 29,18</t>
+          <t>19,17; 29,78</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>11,08; 20,48</t>
+          <t>12,74; 22,01</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,22; 13,85</t>
+          <t>7,36; 13,87</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>19,84; 26,82</t>
+          <t>19,81; 26,51</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>20,49; 27,62</t>
+          <t>19,72; 27,43</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>13,22; 19,61</t>
+          <t>13,11; 19,55</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>8,05; 13,09</t>
+          <t>7,58; 12,42</t>
         </is>
       </c>
     </row>
@@ -1216,42 +1216,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>11,62%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>10,41%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>9,4%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>8,99%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>9,43%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>10,91%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>9,3%</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>11,33%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>11,62%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>10,41%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>9,4%</t>
-        </is>
-      </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>9,46%</t>
+          <t>10,87%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>10,45%</t>
+          <t>10,0%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,8; 11,22</t>
+          <t>9,7; 13,84</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,23; 12,9</t>
+          <t>8,56; 12,34</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,52; 11,1</t>
+          <t>7,59; 11,28</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9,18; 13,48</t>
+          <t>6,98; 10,95</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>9,68; 13,53</t>
+          <t>7,78; 11,22</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>8,55; 12,68</t>
+          <t>9,18; 12,99</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,72; 11,43</t>
+          <t>7,64; 11,15</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,72; 11,47</t>
+          <t>8,86; 12,95</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>9,14; 11,82</t>
+          <t>9,31; 11,82</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>9,39; 12,21</t>
+          <t>9,41; 12,07</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>8,12; 10,74</t>
+          <t>8,16; 10,68</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>9,08; 12,1</t>
+          <t>8,63; 11,56</t>
         </is>
       </c>
     </row>
